--- a/Code/Results/Cases/Case_0_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_73/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9873342166375074</v>
+        <v>1.044366416687426</v>
       </c>
       <c r="D2">
-        <v>1.001984396562564</v>
+        <v>1.051754987288968</v>
       </c>
       <c r="E2">
-        <v>1.002739444335635</v>
+        <v>1.051835858366668</v>
       </c>
       <c r="F2">
-        <v>1.008577478603009</v>
+        <v>1.061815470365856</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.009900473272096</v>
+        <v>1.049431886253281</v>
       </c>
       <c r="K2">
-        <v>1.013416154646104</v>
+        <v>1.054505611127021</v>
       </c>
       <c r="L2">
-        <v>1.014160745827372</v>
+        <v>1.054586258161316</v>
       </c>
       <c r="M2">
-        <v>1.019918595061196</v>
+        <v>1.064538506498105</v>
       </c>
       <c r="N2">
-        <v>1.011334647781345</v>
+        <v>1.050922199903281</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9939145218351357</v>
+        <v>1.045742149378773</v>
       </c>
       <c r="D3">
-        <v>1.007723741576857</v>
+        <v>1.053009638720441</v>
       </c>
       <c r="E3">
-        <v>1.008398565358658</v>
+        <v>1.053073294039903</v>
       </c>
       <c r="F3">
-        <v>1.014711255728347</v>
+        <v>1.063166637302956</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.014572469170606</v>
+        <v>1.050452735914317</v>
       </c>
       <c r="K3">
-        <v>1.018258740436292</v>
+        <v>1.055571836503854</v>
       </c>
       <c r="L3">
-        <v>1.018925101078134</v>
+        <v>1.055635328350023</v>
       </c>
       <c r="M3">
-        <v>1.025159300994038</v>
+        <v>1.06570301774435</v>
       </c>
       <c r="N3">
-        <v>1.016013278449917</v>
+        <v>1.051944499287929</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9980645529117842</v>
+        <v>1.046632404330529</v>
       </c>
       <c r="D4">
-        <v>1.011349939205477</v>
+        <v>1.053821801990219</v>
       </c>
       <c r="E4">
-        <v>1.011974345024054</v>
+        <v>1.053874310918591</v>
       </c>
       <c r="F4">
-        <v>1.018587747125425</v>
+        <v>1.064041456525528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.017517897534573</v>
+        <v>1.051112912620487</v>
       </c>
       <c r="K4">
-        <v>1.021313283595791</v>
+        <v>1.05626151719647</v>
       </c>
       <c r="L4">
-        <v>1.021930366909205</v>
+        <v>1.056313898129421</v>
       </c>
       <c r="M4">
-        <v>1.028466893410623</v>
+        <v>1.066456516076862</v>
       </c>
       <c r="N4">
-        <v>1.018962889660007</v>
+        <v>1.052605613520744</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9997847227108169</v>
+        <v>1.047006686586925</v>
       </c>
       <c r="D5">
-        <v>1.012854472048595</v>
+        <v>1.054163314693475</v>
       </c>
       <c r="E5">
-        <v>1.013458017862651</v>
+        <v>1.054211135995033</v>
       </c>
       <c r="F5">
-        <v>1.02019639748934</v>
+        <v>1.064409358877251</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.018738444766814</v>
+        <v>1.051390362047624</v>
       </c>
       <c r="K5">
-        <v>1.022579418255335</v>
+        <v>1.056551404318079</v>
       </c>
       <c r="L5">
-        <v>1.023176088398495</v>
+        <v>1.056599111670254</v>
       </c>
       <c r="M5">
-        <v>1.029838383792074</v>
+        <v>1.066773285011319</v>
       </c>
       <c r="N5">
-        <v>1.020185170209315</v>
+        <v>1.052883456957891</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00007214653154</v>
+        <v>1.047069531452981</v>
       </c>
       <c r="D6">
-        <v>1.013105950390684</v>
+        <v>1.054220660905103</v>
       </c>
       <c r="E6">
-        <v>1.013706012808058</v>
+        <v>1.054267695032027</v>
       </c>
       <c r="F6">
-        <v>1.020465294829386</v>
+        <v>1.064471138912841</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.018942365948416</v>
+        <v>1.051436941886827</v>
       </c>
       <c r="K6">
-        <v>1.0227909776244</v>
+        <v>1.05660007450799</v>
       </c>
       <c r="L6">
-        <v>1.023384237562936</v>
+        <v>1.056646996993569</v>
       </c>
       <c r="M6">
-        <v>1.030067574502731</v>
+        <v>1.066826471881926</v>
       </c>
       <c r="N6">
-        <v>1.020389380982386</v>
+        <v>1.05293010294581</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9980876325100185</v>
+        <v>1.046637405428698</v>
       </c>
       <c r="D7">
-        <v>1.011370119802946</v>
+        <v>1.053826364984879</v>
       </c>
       <c r="E7">
-        <v>1.011994245597291</v>
+        <v>1.053878811283686</v>
       </c>
       <c r="F7">
-        <v>1.018609323197693</v>
+        <v>1.064046371946768</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.017534275016537</v>
+        <v>1.051116620259461</v>
       </c>
       <c r="K7">
-        <v>1.021330271312256</v>
+        <v>1.056265390894049</v>
       </c>
       <c r="L7">
-        <v>1.021947080696686</v>
+        <v>1.056317709388507</v>
       </c>
       <c r="M7">
-        <v>1.028485292843991</v>
+        <v>1.06646074876254</v>
       </c>
       <c r="N7">
-        <v>1.018979290399874</v>
+        <v>1.052609326424991</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9895812218374351</v>
+        <v>1.044831341031003</v>
       </c>
       <c r="D8">
-        <v>1.003942809401996</v>
+        <v>1.052178937991249</v>
       </c>
       <c r="E8">
-        <v>1.004670422586722</v>
+        <v>1.052253992242456</v>
       </c>
       <c r="F8">
-        <v>1.010670258909227</v>
+        <v>1.062271996856341</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.01149602884166</v>
+        <v>1.049776967580925</v>
       </c>
       <c r="K8">
-        <v>1.01506963639728</v>
+        <v>1.054865997819324</v>
       </c>
       <c r="L8">
-        <v>1.015787499514506</v>
+        <v>1.054940849278645</v>
       </c>
       <c r="M8">
-        <v>1.021707608837958</v>
+        <v>1.064932063894522</v>
       </c>
       <c r="N8">
-        <v>1.012932469222832</v>
+        <v>1.051267771285991</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9737009427242287</v>
+        <v>1.041649145447722</v>
       </c>
       <c r="D9">
-        <v>0.9901337225300271</v>
+        <v>1.049278291101655</v>
       </c>
       <c r="E9">
-        <v>0.9910561876928954</v>
+        <v>1.049393136725764</v>
       </c>
       <c r="F9">
-        <v>0.9959179956356945</v>
+        <v>1.05914920193163</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.000217836381083</v>
+        <v>1.047413299785727</v>
       </c>
       <c r="K9">
-        <v>1.003388927487132</v>
+        <v>1.052398153224373</v>
       </c>
       <c r="L9">
-        <v>1.004296058088009</v>
+        <v>1.052512634553902</v>
       </c>
       <c r="M9">
-        <v>1.009077649522031</v>
+        <v>1.062238068275244</v>
       </c>
       <c r="N9">
-        <v>1.001638260435334</v>
+        <v>1.048900746811408</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9624149104725674</v>
+        <v>1.039527660251702</v>
       </c>
       <c r="D10">
-        <v>0.9803645128550456</v>
+        <v>1.04734592356721</v>
       </c>
       <c r="E10">
-        <v>0.9814269390738499</v>
+        <v>1.047487271135892</v>
       </c>
       <c r="F10">
-        <v>0.9854865405863301</v>
+        <v>1.057069762400185</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9922033886740708</v>
+        <v>1.045835332076312</v>
       </c>
       <c r="K10">
-        <v>0.9950975791139334</v>
+        <v>1.050751468326262</v>
       </c>
       <c r="L10">
-        <v>0.9961398333484057</v>
+        <v>1.050892322931896</v>
       </c>
       <c r="M10">
-        <v>1.000122879454638</v>
+        <v>1.060441732524757</v>
       </c>
       <c r="N10">
-        <v>0.9936124312933072</v>
+        <v>1.047320538206849</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9573364559857344</v>
+        <v>1.038608975565838</v>
       </c>
       <c r="D11">
-        <v>0.9759808278792702</v>
+        <v>1.046509480238738</v>
       </c>
       <c r="E11">
-        <v>0.9771066739671975</v>
+        <v>1.046662298636129</v>
       </c>
       <c r="F11">
-        <v>0.980806721847852</v>
+        <v>1.056169875254395</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9885984748664848</v>
+        <v>1.04515150093701</v>
       </c>
       <c r="K11">
-        <v>0.9913703853452217</v>
+        <v>1.050038055707306</v>
       </c>
       <c r="L11">
-        <v>0.992473636022322</v>
+        <v>1.050190320172058</v>
       </c>
       <c r="M11">
-        <v>0.9960999051450974</v>
+        <v>1.0596637816879</v>
       </c>
       <c r="N11">
-        <v>0.990002398094625</v>
+        <v>1.046635735948893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9554188391070714</v>
+        <v>1.038267720380208</v>
       </c>
       <c r="D12">
-        <v>0.974327543052511</v>
+        <v>1.046198827334766</v>
       </c>
       <c r="E12">
-        <v>0.9754774109721329</v>
+        <v>1.046355905913463</v>
       </c>
       <c r="F12">
-        <v>0.9790418921804411</v>
+        <v>1.055835692144694</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9872375876982105</v>
+        <v>1.04489740832854</v>
       </c>
       <c r="K12">
-        <v>0.9899636873632737</v>
+        <v>1.049773001264149</v>
       </c>
       <c r="L12">
-        <v>0.9910900038996113</v>
+        <v>1.04992950245072</v>
       </c>
       <c r="M12">
-        <v>0.9945819411189717</v>
+        <v>1.059374793956056</v>
       </c>
       <c r="N12">
-        <v>0.988639578310476</v>
+        <v>1.046381282499774</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9558316315632285</v>
+        <v>1.038340921519681</v>
       </c>
       <c r="D13">
-        <v>0.9746833422115583</v>
+        <v>1.046265461708766</v>
       </c>
       <c r="E13">
-        <v>0.9758280356033951</v>
+        <v>1.046421626489293</v>
       </c>
       <c r="F13">
-        <v>0.9794216905174062</v>
+        <v>1.05590737221921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9875305202114547</v>
+        <v>1.044951916053832</v>
       </c>
       <c r="K13">
-        <v>0.9902664646906576</v>
+        <v>1.04982985916205</v>
       </c>
       <c r="L13">
-        <v>0.9913878143963437</v>
+        <v>1.049985451619737</v>
       </c>
       <c r="M13">
-        <v>0.994908650826357</v>
+        <v>1.059436783860785</v>
       </c>
       <c r="N13">
-        <v>0.9889329268214887</v>
+        <v>1.046435867632289</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.957178598053022</v>
+        <v>1.038580767634264</v>
       </c>
       <c r="D14">
-        <v>0.9758446884617832</v>
+        <v>1.046483800788703</v>
       </c>
       <c r="E14">
-        <v>0.976972510458753</v>
+        <v>1.046636971345521</v>
       </c>
       <c r="F14">
-        <v>0.9806613945272667</v>
+        <v>1.056142250064665</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9884864396036992</v>
+        <v>1.045130499360715</v>
       </c>
       <c r="K14">
-        <v>0.9912545715160945</v>
+        <v>1.050016147491192</v>
       </c>
       <c r="L14">
-        <v>0.9923597202598381</v>
+        <v>1.050168762192914</v>
       </c>
       <c r="M14">
-        <v>0.9959749233344682</v>
+        <v>1.059639894342761</v>
       </c>
       <c r="N14">
-        <v>0.9898902037289159</v>
+        <v>1.046614704547951</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9580042883807444</v>
+        <v>1.038728542642932</v>
       </c>
       <c r="D15">
-        <v>0.9765568599191284</v>
+        <v>1.046618331820897</v>
       </c>
       <c r="E15">
-        <v>0.9776743498293835</v>
+        <v>1.046769657462061</v>
       </c>
       <c r="F15">
-        <v>0.9814216353014309</v>
+        <v>1.056286975891406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9890724641041387</v>
+        <v>1.045240518774252</v>
       </c>
       <c r="K15">
-        <v>0.991860374959544</v>
+        <v>1.05013091767357</v>
       </c>
       <c r="L15">
-        <v>0.9929555970912269</v>
+        <v>1.050281697497581</v>
       </c>
       <c r="M15">
-        <v>0.996628697887941</v>
+        <v>1.059765034380407</v>
       </c>
       <c r="N15">
-        <v>0.9904770604513636</v>
+        <v>1.046724880201675</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9627477102647619</v>
+        <v>1.039588628509275</v>
       </c>
       <c r="D16">
-        <v>0.9806520492909274</v>
+        <v>1.047401441264886</v>
       </c>
       <c r="E16">
-        <v>0.9817103293251392</v>
+        <v>1.047542027462982</v>
       </c>
       <c r="F16">
-        <v>0.9857935213833685</v>
+        <v>1.057129495671544</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.992439663130562</v>
+        <v>1.04588070362447</v>
       </c>
       <c r="K16">
-        <v>0.995341915994251</v>
+        <v>1.050798806753473</v>
       </c>
       <c r="L16">
-        <v>0.9963801774244864</v>
+        <v>1.050938903922175</v>
       </c>
       <c r="M16">
-        <v>1.000386656908951</v>
+        <v>1.060493359633398</v>
       </c>
       <c r="N16">
-        <v>0.9938490412866278</v>
+        <v>1.04736597418781</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9656701918940404</v>
+        <v>1.040128116284321</v>
       </c>
       <c r="D17">
-        <v>0.9831784520367934</v>
+        <v>1.047892738944828</v>
       </c>
       <c r="E17">
-        <v>0.9842003731497396</v>
+        <v>1.04802658739586</v>
       </c>
       <c r="F17">
-        <v>0.988490884912946</v>
+        <v>1.057658123746517</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9945146786931521</v>
+        <v>1.046282122408862</v>
       </c>
       <c r="K17">
-        <v>0.9974879956914661</v>
+        <v>1.051217650106969</v>
       </c>
       <c r="L17">
-        <v>0.9984912167647989</v>
+        <v>1.051351043726761</v>
       </c>
       <c r="M17">
-        <v>1.002703765451985</v>
+        <v>1.0609501828799</v>
       </c>
       <c r="N17">
-        <v>0.9959270036093242</v>
+        <v>1.047767963032919</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.967356527702076</v>
+        <v>1.040442784168372</v>
       </c>
       <c r="D18">
-        <v>0.9846373846305762</v>
+        <v>1.048179332254409</v>
       </c>
       <c r="E18">
-        <v>0.9856383668077469</v>
+        <v>1.048309250231855</v>
       </c>
       <c r="F18">
-        <v>0.9900486414344269</v>
+        <v>1.057966514356165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9957121325009411</v>
+        <v>1.046516209300371</v>
       </c>
       <c r="K18">
-        <v>0.9987266727420093</v>
+        <v>1.051461917198398</v>
       </c>
       <c r="L18">
-        <v>0.9997096927288318</v>
+        <v>1.051591399786307</v>
       </c>
       <c r="M18">
-        <v>1.004041388017075</v>
+        <v>1.06121662825493</v>
       </c>
       <c r="N18">
-        <v>0.9971261579388704</v>
+        <v>1.048002382354664</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9679284917214023</v>
+        <v>1.040550076871773</v>
       </c>
       <c r="D19">
-        <v>0.9851324086785384</v>
+        <v>1.048277057963749</v>
       </c>
       <c r="E19">
-        <v>0.9861262955900603</v>
+        <v>1.04840563567</v>
       </c>
       <c r="F19">
-        <v>0.9905772141136018</v>
+        <v>1.058071676310927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9961182976106647</v>
+        <v>1.04659601783105</v>
       </c>
       <c r="K19">
-        <v>0.9991468563169579</v>
+        <v>1.051545199754903</v>
       </c>
       <c r="L19">
-        <v>1.000123027506285</v>
+        <v>1.051673348615695</v>
       </c>
       <c r="M19">
-        <v>1.004495175063042</v>
+        <v>1.061307477323297</v>
       </c>
       <c r="N19">
-        <v>0.9975328998496376</v>
+        <v>1.048082304222612</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9653585469734026</v>
+        <v>1.040070235028806</v>
       </c>
       <c r="D20">
-        <v>0.9829089240819124</v>
+        <v>1.047840024515357</v>
       </c>
       <c r="E20">
-        <v>0.9839347180932736</v>
+        <v>1.047974595909623</v>
       </c>
       <c r="F20">
-        <v>0.9882031079707458</v>
+        <v>1.057601401730623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9942933913955198</v>
+        <v>1.046239059569863</v>
       </c>
       <c r="K20">
-        <v>0.9972591076205074</v>
+        <v>1.05117271604495</v>
       </c>
       <c r="L20">
-        <v>0.9982660633983325</v>
+        <v>1.051306828991294</v>
       </c>
       <c r="M20">
-        <v>1.002456612498974</v>
+        <v>1.06090117132428</v>
       </c>
       <c r="N20">
-        <v>0.9957054020583475</v>
+        <v>1.047724839039749</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9567828340365691</v>
+        <v>1.038510139377034</v>
       </c>
       <c r="D21">
-        <v>0.975503407236438</v>
+        <v>1.046419504311286</v>
       </c>
       <c r="E21">
-        <v>0.9766361842447229</v>
+        <v>1.046573556607911</v>
       </c>
       <c r="F21">
-        <v>0.9802970828084868</v>
+        <v>1.056073082351266</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9882055627325508</v>
+        <v>1.045077913461565</v>
       </c>
       <c r="K21">
-        <v>0.9909642273110054</v>
+        <v>1.04996129193629</v>
       </c>
       <c r="L21">
-        <v>0.9920741352366291</v>
+        <v>1.050114783551098</v>
       </c>
       <c r="M21">
-        <v>0.9956616009664921</v>
+        <v>1.059580084006143</v>
       </c>
       <c r="N21">
-        <v>0.9896089279803932</v>
+        <v>1.046562043970793</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9512086825772983</v>
+        <v>1.037529157455006</v>
       </c>
       <c r="D22">
-        <v>0.9707015741615239</v>
+        <v>1.045526593110581</v>
       </c>
       <c r="E22">
-        <v>0.9719043297895014</v>
+        <v>1.045692890434128</v>
       </c>
       <c r="F22">
-        <v>0.975171525843384</v>
+        <v>1.055112599656356</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9842504682787975</v>
+        <v>1.044347348358119</v>
       </c>
       <c r="K22">
-        <v>0.9868766727337425</v>
+        <v>1.049199265728368</v>
       </c>
       <c r="L22">
-        <v>0.98805369820974</v>
+        <v>1.0493649333783</v>
       </c>
       <c r="M22">
-        <v>0.9912514243400465</v>
+        <v>1.058749334174753</v>
       </c>
       <c r="N22">
-        <v>0.9856482168388598</v>
+        <v>1.045830441381103</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9541818254052391</v>
+        <v>1.038049204410176</v>
       </c>
       <c r="D23">
-        <v>0.9732616247151302</v>
+        <v>1.045999921912478</v>
       </c>
       <c r="E23">
-        <v>0.9744270107445235</v>
+        <v>1.046159728200397</v>
       </c>
       <c r="F23">
-        <v>0.9779040954878524</v>
+        <v>1.055621729948876</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9863598144261292</v>
+        <v>1.044734683763612</v>
       </c>
       <c r="K23">
-        <v>0.9890564663329859</v>
+        <v>1.049603264987206</v>
       </c>
       <c r="L23">
-        <v>0.9901976722654422</v>
+        <v>1.049762478629855</v>
       </c>
       <c r="M23">
-        <v>0.9936030642716343</v>
+        <v>1.059189743779694</v>
       </c>
       <c r="N23">
-        <v>0.9877605584996663</v>
+        <v>1.046218326847299</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9654994222621025</v>
+        <v>1.040096389095662</v>
       </c>
       <c r="D24">
-        <v>0.983030757372465</v>
+        <v>1.047863843811324</v>
       </c>
       <c r="E24">
-        <v>0.9840548005607707</v>
+        <v>1.047998088540091</v>
       </c>
       <c r="F24">
-        <v>0.9883331899474821</v>
+        <v>1.057627031810961</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9943934212438006</v>
+        <v>1.046258517979599</v>
       </c>
       <c r="K24">
-        <v>0.99736257263099</v>
+        <v>1.051193019928095</v>
       </c>
       <c r="L24">
-        <v>0.9983678401257267</v>
+        <v>1.051326807844723</v>
       </c>
       <c r="M24">
-        <v>1.002568333126085</v>
+        <v>1.060923317573232</v>
       </c>
       <c r="N24">
-        <v>0.9958055739604863</v>
+        <v>1.04774432508266</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9779216614721559</v>
+        <v>1.042471805672415</v>
       </c>
       <c r="D25">
-        <v>0.9937967670208405</v>
+        <v>1.050027919167129</v>
       </c>
       <c r="E25">
-        <v>0.9946672175147553</v>
+        <v>1.050132482710053</v>
       </c>
       <c r="F25">
-        <v>0.9998303255604492</v>
+        <v>1.059956078459365</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.003215600053208</v>
+        <v>1.048024739200765</v>
       </c>
       <c r="K25">
-        <v>1.006492149558485</v>
+        <v>1.053036395380807</v>
       </c>
       <c r="L25">
-        <v>1.007348886021047</v>
+        <v>1.053140639990817</v>
       </c>
       <c r="M25">
-        <v>1.012431276077144</v>
+        <v>1.062934578261756</v>
       </c>
       <c r="N25">
-        <v>1.004640281275721</v>
+        <v>1.049513054540548</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_73/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.044366416687426</v>
+        <v>0.9873342166375069</v>
       </c>
       <c r="D2">
-        <v>1.051754987288968</v>
+        <v>1.001984396562563</v>
       </c>
       <c r="E2">
-        <v>1.051835858366668</v>
+        <v>1.002739444335634</v>
       </c>
       <c r="F2">
-        <v>1.061815470365856</v>
+        <v>1.008577478603008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.049431886253281</v>
+        <v>1.009900473272095</v>
       </c>
       <c r="K2">
-        <v>1.054505611127021</v>
+        <v>1.013416154646103</v>
       </c>
       <c r="L2">
-        <v>1.054586258161316</v>
+        <v>1.014160745827371</v>
       </c>
       <c r="M2">
-        <v>1.064538506498105</v>
+        <v>1.019918595061195</v>
       </c>
       <c r="N2">
-        <v>1.050922199903281</v>
+        <v>1.011334647781345</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.045742149378773</v>
+        <v>0.993914521835135</v>
       </c>
       <c r="D3">
-        <v>1.053009638720441</v>
+        <v>1.007723741576856</v>
       </c>
       <c r="E3">
-        <v>1.053073294039903</v>
+        <v>1.008398565358657</v>
       </c>
       <c r="F3">
-        <v>1.063166637302956</v>
+        <v>1.014711255728346</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.050452735914317</v>
+        <v>1.014572469170605</v>
       </c>
       <c r="K3">
-        <v>1.055571836503854</v>
+        <v>1.018258740436291</v>
       </c>
       <c r="L3">
-        <v>1.055635328350023</v>
+        <v>1.018925101078133</v>
       </c>
       <c r="M3">
-        <v>1.06570301774435</v>
+        <v>1.025159300994037</v>
       </c>
       <c r="N3">
-        <v>1.051944499287929</v>
+        <v>1.016013278449916</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.046632404330529</v>
+        <v>0.998064552911786</v>
       </c>
       <c r="D4">
-        <v>1.053821801990219</v>
+        <v>1.011349939205479</v>
       </c>
       <c r="E4">
-        <v>1.053874310918591</v>
+        <v>1.011974345024056</v>
       </c>
       <c r="F4">
-        <v>1.064041456525528</v>
+        <v>1.018587747125427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.051112912620487</v>
+        <v>1.017517897534575</v>
       </c>
       <c r="K4">
-        <v>1.05626151719647</v>
+        <v>1.021313283595792</v>
       </c>
       <c r="L4">
-        <v>1.056313898129421</v>
+        <v>1.021930366909206</v>
       </c>
       <c r="M4">
-        <v>1.066456516076862</v>
+        <v>1.028466893410624</v>
       </c>
       <c r="N4">
-        <v>1.052605613520744</v>
+        <v>1.018962889660008</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.047006686586925</v>
+        <v>0.9997847227108168</v>
       </c>
       <c r="D5">
-        <v>1.054163314693475</v>
+        <v>1.012854472048595</v>
       </c>
       <c r="E5">
-        <v>1.054211135995033</v>
+        <v>1.01345801786265</v>
       </c>
       <c r="F5">
-        <v>1.064409358877251</v>
+        <v>1.02019639748934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.051390362047624</v>
+        <v>1.018738444766813</v>
       </c>
       <c r="K5">
-        <v>1.056551404318079</v>
+        <v>1.022579418255335</v>
       </c>
       <c r="L5">
-        <v>1.056599111670254</v>
+        <v>1.023176088398495</v>
       </c>
       <c r="M5">
-        <v>1.066773285011319</v>
+        <v>1.029838383792074</v>
       </c>
       <c r="N5">
-        <v>1.052883456957891</v>
+        <v>1.020185170209315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.047069531452981</v>
+        <v>1.00007214653154</v>
       </c>
       <c r="D6">
-        <v>1.054220660905103</v>
+        <v>1.013105950390684</v>
       </c>
       <c r="E6">
-        <v>1.054267695032027</v>
+        <v>1.013706012808058</v>
       </c>
       <c r="F6">
-        <v>1.064471138912841</v>
+        <v>1.020465294829386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.051436941886827</v>
+        <v>1.018942365948416</v>
       </c>
       <c r="K6">
-        <v>1.05660007450799</v>
+        <v>1.022790977624399</v>
       </c>
       <c r="L6">
-        <v>1.056646996993569</v>
+        <v>1.023384237562936</v>
       </c>
       <c r="M6">
-        <v>1.066826471881926</v>
+        <v>1.030067574502731</v>
       </c>
       <c r="N6">
-        <v>1.05293010294581</v>
+        <v>1.020389380982386</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.046637405428698</v>
+        <v>0.9980876325100176</v>
       </c>
       <c r="D7">
-        <v>1.053826364984879</v>
+        <v>1.011370119802945</v>
       </c>
       <c r="E7">
-        <v>1.053878811283686</v>
+        <v>1.01199424559729</v>
       </c>
       <c r="F7">
-        <v>1.064046371946768</v>
+        <v>1.018609323197692</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.051116620259461</v>
+        <v>1.017534275016536</v>
       </c>
       <c r="K7">
-        <v>1.056265390894049</v>
+        <v>1.021330271312255</v>
       </c>
       <c r="L7">
-        <v>1.056317709388507</v>
+        <v>1.021947080696685</v>
       </c>
       <c r="M7">
-        <v>1.06646074876254</v>
+        <v>1.02848529284399</v>
       </c>
       <c r="N7">
-        <v>1.052609326424991</v>
+        <v>1.018979290399872</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.044831341031003</v>
+        <v>0.9895812218374364</v>
       </c>
       <c r="D8">
-        <v>1.052178937991249</v>
+        <v>1.003942809401997</v>
       </c>
       <c r="E8">
-        <v>1.052253992242456</v>
+        <v>1.004670422586723</v>
       </c>
       <c r="F8">
-        <v>1.062271996856341</v>
+        <v>1.010670258909228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.049776967580925</v>
+        <v>1.011496028841661</v>
       </c>
       <c r="K8">
-        <v>1.054865997819324</v>
+        <v>1.015069636397281</v>
       </c>
       <c r="L8">
-        <v>1.054940849278645</v>
+        <v>1.015787499514507</v>
       </c>
       <c r="M8">
-        <v>1.064932063894522</v>
+        <v>1.021707608837959</v>
       </c>
       <c r="N8">
-        <v>1.051267771285991</v>
+        <v>1.012932469222833</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.041649145447722</v>
+        <v>0.9737009427242276</v>
       </c>
       <c r="D9">
-        <v>1.049278291101655</v>
+        <v>0.990133722530026</v>
       </c>
       <c r="E9">
-        <v>1.049393136725764</v>
+        <v>0.9910561876928944</v>
       </c>
       <c r="F9">
-        <v>1.05914920193163</v>
+        <v>0.9959179956356934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.047413299785727</v>
+        <v>1.000217836381082</v>
       </c>
       <c r="K9">
-        <v>1.052398153224373</v>
+        <v>1.003388927487131</v>
       </c>
       <c r="L9">
-        <v>1.052512634553902</v>
+        <v>1.004296058088008</v>
       </c>
       <c r="M9">
-        <v>1.062238068275244</v>
+        <v>1.009077649522029</v>
       </c>
       <c r="N9">
-        <v>1.048900746811408</v>
+        <v>1.001638260435333</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.039527660251702</v>
+        <v>0.962414910472567</v>
       </c>
       <c r="D10">
-        <v>1.04734592356721</v>
+        <v>0.980364512855045</v>
       </c>
       <c r="E10">
-        <v>1.047487271135892</v>
+        <v>0.9814269390738496</v>
       </c>
       <c r="F10">
-        <v>1.057069762400185</v>
+        <v>0.9854865405863296</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.045835332076312</v>
+        <v>0.9922033886740702</v>
       </c>
       <c r="K10">
-        <v>1.050751468326262</v>
+        <v>0.9950975791139328</v>
       </c>
       <c r="L10">
-        <v>1.050892322931896</v>
+        <v>0.9961398333484052</v>
       </c>
       <c r="M10">
-        <v>1.060441732524757</v>
+        <v>1.000122879454638</v>
       </c>
       <c r="N10">
-        <v>1.047320538206849</v>
+        <v>0.9936124312933068</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.038608975565838</v>
+        <v>0.9573364559857349</v>
       </c>
       <c r="D11">
-        <v>1.046509480238738</v>
+        <v>0.9759808278792705</v>
       </c>
       <c r="E11">
-        <v>1.046662298636129</v>
+        <v>0.9771066739671976</v>
       </c>
       <c r="F11">
-        <v>1.056169875254395</v>
+        <v>0.9808067218478523</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.04515150093701</v>
+        <v>0.9885984748664852</v>
       </c>
       <c r="K11">
-        <v>1.050038055707306</v>
+        <v>0.9913703853452223</v>
       </c>
       <c r="L11">
-        <v>1.050190320172058</v>
+        <v>0.9924736360223222</v>
       </c>
       <c r="M11">
-        <v>1.0596637816879</v>
+        <v>0.9960999051450975</v>
       </c>
       <c r="N11">
-        <v>1.046635735948893</v>
+        <v>0.9900023980946258</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.038267720380208</v>
+        <v>0.9554188391070718</v>
       </c>
       <c r="D12">
-        <v>1.046198827334766</v>
+        <v>0.9743275430525119</v>
       </c>
       <c r="E12">
-        <v>1.046355905913463</v>
+        <v>0.9754774109721333</v>
       </c>
       <c r="F12">
-        <v>1.055835692144694</v>
+        <v>0.9790418921804419</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.04489740832854</v>
+        <v>0.9872375876982111</v>
       </c>
       <c r="K12">
-        <v>1.049773001264149</v>
+        <v>0.9899636873632746</v>
       </c>
       <c r="L12">
-        <v>1.04992950245072</v>
+        <v>0.9910900038996117</v>
       </c>
       <c r="M12">
-        <v>1.059374793956056</v>
+        <v>0.9945819411189725</v>
       </c>
       <c r="N12">
-        <v>1.046381282499774</v>
+        <v>0.9886395783104766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.038340921519681</v>
+        <v>0.9558316315632294</v>
       </c>
       <c r="D13">
-        <v>1.046265461708766</v>
+        <v>0.9746833422115592</v>
       </c>
       <c r="E13">
-        <v>1.046421626489293</v>
+        <v>0.9758280356033961</v>
       </c>
       <c r="F13">
-        <v>1.05590737221921</v>
+        <v>0.9794216905174076</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.044951916053832</v>
+        <v>0.9875305202114555</v>
       </c>
       <c r="K13">
-        <v>1.04982985916205</v>
+        <v>0.9902664646906586</v>
       </c>
       <c r="L13">
-        <v>1.049985451619737</v>
+        <v>0.9913878143963447</v>
       </c>
       <c r="M13">
-        <v>1.059436783860785</v>
+        <v>0.994908650826358</v>
       </c>
       <c r="N13">
-        <v>1.046435867632289</v>
+        <v>0.9889329268214894</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.038580767634264</v>
+        <v>0.9571785980530222</v>
       </c>
       <c r="D14">
-        <v>1.046483800788703</v>
+        <v>0.9758446884617835</v>
       </c>
       <c r="E14">
-        <v>1.046636971345521</v>
+        <v>0.9769725104587528</v>
       </c>
       <c r="F14">
-        <v>1.056142250064665</v>
+        <v>0.9806613945272671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.045130499360715</v>
+        <v>0.9884864396036994</v>
       </c>
       <c r="K14">
-        <v>1.050016147491192</v>
+        <v>0.9912545715160946</v>
       </c>
       <c r="L14">
-        <v>1.050168762192914</v>
+        <v>0.9923597202598381</v>
       </c>
       <c r="M14">
-        <v>1.059639894342761</v>
+        <v>0.9959749233344682</v>
       </c>
       <c r="N14">
-        <v>1.046614704547951</v>
+        <v>0.9898902037289161</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.038728542642932</v>
+        <v>0.958004288380743</v>
       </c>
       <c r="D15">
-        <v>1.046618331820897</v>
+        <v>0.9765568599191273</v>
       </c>
       <c r="E15">
-        <v>1.046769657462061</v>
+        <v>0.9776743498293823</v>
       </c>
       <c r="F15">
-        <v>1.056286975891406</v>
+        <v>0.9814216353014298</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.045240518774252</v>
+        <v>0.9890724641041376</v>
       </c>
       <c r="K15">
-        <v>1.05013091767357</v>
+        <v>0.991860374959543</v>
       </c>
       <c r="L15">
-        <v>1.050281697497581</v>
+        <v>0.9929555970912258</v>
       </c>
       <c r="M15">
-        <v>1.059765034380407</v>
+        <v>0.9966286978879397</v>
       </c>
       <c r="N15">
-        <v>1.046724880201675</v>
+        <v>0.9904770604513627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.039588628509275</v>
+        <v>0.9627477102647621</v>
       </c>
       <c r="D16">
-        <v>1.047401441264886</v>
+        <v>0.980652049290928</v>
       </c>
       <c r="E16">
-        <v>1.047542027462982</v>
+        <v>0.9817103293251396</v>
       </c>
       <c r="F16">
-        <v>1.057129495671544</v>
+        <v>0.9857935213833691</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.04588070362447</v>
+        <v>0.9924396631305623</v>
       </c>
       <c r="K16">
-        <v>1.050798806753473</v>
+        <v>0.9953419159942515</v>
       </c>
       <c r="L16">
-        <v>1.050938903922175</v>
+        <v>0.9963801774244867</v>
       </c>
       <c r="M16">
-        <v>1.060493359633398</v>
+        <v>1.000386656908951</v>
       </c>
       <c r="N16">
-        <v>1.04736597418781</v>
+        <v>0.9938490412866281</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.040128116284321</v>
+        <v>0.9656701918940397</v>
       </c>
       <c r="D17">
-        <v>1.047892738944828</v>
+        <v>0.9831784520367928</v>
       </c>
       <c r="E17">
-        <v>1.04802658739586</v>
+        <v>0.9842003731497387</v>
       </c>
       <c r="F17">
-        <v>1.057658123746517</v>
+        <v>0.9884908849129451</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.046282122408862</v>
+        <v>0.9945146786931514</v>
       </c>
       <c r="K17">
-        <v>1.051217650106969</v>
+        <v>0.9974879956914653</v>
       </c>
       <c r="L17">
-        <v>1.051351043726761</v>
+        <v>0.998491216764798</v>
       </c>
       <c r="M17">
-        <v>1.0609501828799</v>
+        <v>1.002703765451984</v>
       </c>
       <c r="N17">
-        <v>1.047767963032919</v>
+        <v>0.9959270036093234</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.040442784168372</v>
+        <v>0.9673565277020758</v>
       </c>
       <c r="D18">
-        <v>1.048179332254409</v>
+        <v>0.9846373846305757</v>
       </c>
       <c r="E18">
-        <v>1.048309250231855</v>
+        <v>0.9856383668077465</v>
       </c>
       <c r="F18">
-        <v>1.057966514356165</v>
+        <v>0.9900486414344265</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.046516209300371</v>
+        <v>0.9957121325009408</v>
       </c>
       <c r="K18">
-        <v>1.051461917198398</v>
+        <v>0.9987266727420091</v>
       </c>
       <c r="L18">
-        <v>1.051591399786307</v>
+        <v>0.9997096927288314</v>
       </c>
       <c r="M18">
-        <v>1.06121662825493</v>
+        <v>1.004041388017075</v>
       </c>
       <c r="N18">
-        <v>1.048002382354664</v>
+        <v>0.9971261579388702</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.040550076871773</v>
+        <v>0.9679284917214029</v>
       </c>
       <c r="D19">
-        <v>1.048277057963749</v>
+        <v>0.985132408678539</v>
       </c>
       <c r="E19">
-        <v>1.04840563567</v>
+        <v>0.9861262955900612</v>
       </c>
       <c r="F19">
-        <v>1.058071676310927</v>
+        <v>0.9905772141136028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.04659601783105</v>
+        <v>0.9961182976106655</v>
       </c>
       <c r="K19">
-        <v>1.051545199754903</v>
+        <v>0.9991468563169589</v>
       </c>
       <c r="L19">
-        <v>1.051673348615695</v>
+        <v>1.000123027506286</v>
       </c>
       <c r="M19">
-        <v>1.061307477323297</v>
+        <v>1.004495175063043</v>
       </c>
       <c r="N19">
-        <v>1.048082304222612</v>
+        <v>0.9975328998496382</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.040070235028806</v>
+        <v>0.9653585469734032</v>
       </c>
       <c r="D20">
-        <v>1.047840024515357</v>
+        <v>0.9829089240819128</v>
       </c>
       <c r="E20">
-        <v>1.047974595909623</v>
+        <v>0.9839347180932743</v>
       </c>
       <c r="F20">
-        <v>1.057601401730623</v>
+        <v>0.9882031079707462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.046239059569863</v>
+        <v>0.9942933913955203</v>
       </c>
       <c r="K20">
-        <v>1.05117271604495</v>
+        <v>0.9972591076205077</v>
       </c>
       <c r="L20">
-        <v>1.051306828991294</v>
+        <v>0.9982660633983328</v>
       </c>
       <c r="M20">
-        <v>1.06090117132428</v>
+        <v>1.002456612498975</v>
       </c>
       <c r="N20">
-        <v>1.047724839039749</v>
+        <v>0.9957054020583479</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.038510139377034</v>
+        <v>0.9567828340365704</v>
       </c>
       <c r="D21">
-        <v>1.046419504311286</v>
+        <v>0.9755034072364396</v>
       </c>
       <c r="E21">
-        <v>1.046573556607911</v>
+        <v>0.976636184244724</v>
       </c>
       <c r="F21">
-        <v>1.056073082351266</v>
+        <v>0.9802970828084885</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.045077913461565</v>
+        <v>0.9882055627325518</v>
       </c>
       <c r="K21">
-        <v>1.04996129193629</v>
+        <v>0.9909642273110066</v>
       </c>
       <c r="L21">
-        <v>1.050114783551098</v>
+        <v>0.9920741352366306</v>
       </c>
       <c r="M21">
-        <v>1.059580084006143</v>
+        <v>0.9956616009664936</v>
       </c>
       <c r="N21">
-        <v>1.046562043970793</v>
+        <v>0.9896089279803943</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.037529157455006</v>
+        <v>0.9512086825772983</v>
       </c>
       <c r="D22">
-        <v>1.045526593110581</v>
+        <v>0.9707015741615239</v>
       </c>
       <c r="E22">
-        <v>1.045692890434128</v>
+        <v>0.9719043297895014</v>
       </c>
       <c r="F22">
-        <v>1.055112599656356</v>
+        <v>0.975171525843384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.044347348358119</v>
+        <v>0.9842504682787977</v>
       </c>
       <c r="K22">
-        <v>1.049199265728368</v>
+        <v>0.9868766727337425</v>
       </c>
       <c r="L22">
-        <v>1.0493649333783</v>
+        <v>0.9880536982097399</v>
       </c>
       <c r="M22">
-        <v>1.058749334174753</v>
+        <v>0.9912514243400468</v>
       </c>
       <c r="N22">
-        <v>1.045830441381103</v>
+        <v>0.9856482168388602</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.038049204410176</v>
+        <v>0.9541818254052383</v>
       </c>
       <c r="D23">
-        <v>1.045999921912478</v>
+        <v>0.9732616247151297</v>
       </c>
       <c r="E23">
-        <v>1.046159728200397</v>
+        <v>0.9744270107445228</v>
       </c>
       <c r="F23">
-        <v>1.055621729948876</v>
+        <v>0.9779040954878518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.044734683763612</v>
+        <v>0.9863598144261286</v>
       </c>
       <c r="K23">
-        <v>1.049603264987206</v>
+        <v>0.9890564663329852</v>
       </c>
       <c r="L23">
-        <v>1.049762478629855</v>
+        <v>0.9901976722654414</v>
       </c>
       <c r="M23">
-        <v>1.059189743779694</v>
+        <v>0.9936030642716337</v>
       </c>
       <c r="N23">
-        <v>1.046218326847299</v>
+        <v>0.9877605584996656</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.040096389095662</v>
+        <v>0.9654994222621029</v>
       </c>
       <c r="D24">
-        <v>1.047863843811324</v>
+        <v>0.9830307573724654</v>
       </c>
       <c r="E24">
-        <v>1.047998088540091</v>
+        <v>0.984054800560771</v>
       </c>
       <c r="F24">
-        <v>1.057627031810961</v>
+        <v>0.9883331899474828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.046258517979599</v>
+        <v>0.9943934212438007</v>
       </c>
       <c r="K24">
-        <v>1.051193019928095</v>
+        <v>0.9973625726309904</v>
       </c>
       <c r="L24">
-        <v>1.051326807844723</v>
+        <v>0.998367840125727</v>
       </c>
       <c r="M24">
-        <v>1.060923317573232</v>
+        <v>1.002568333126085</v>
       </c>
       <c r="N24">
-        <v>1.04774432508266</v>
+        <v>0.9958055739604863</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.042471805672415</v>
+        <v>0.9779216614721545</v>
       </c>
       <c r="D25">
-        <v>1.050027919167129</v>
+        <v>0.9937967670208397</v>
       </c>
       <c r="E25">
-        <v>1.050132482710053</v>
+        <v>0.9946672175147542</v>
       </c>
       <c r="F25">
-        <v>1.059956078459365</v>
+        <v>0.9998303255604482</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.048024739200765</v>
+        <v>1.003215600053207</v>
       </c>
       <c r="K25">
-        <v>1.053036395380807</v>
+        <v>1.006492149558484</v>
       </c>
       <c r="L25">
-        <v>1.053140639990817</v>
+        <v>1.007348886021046</v>
       </c>
       <c r="M25">
-        <v>1.062934578261756</v>
+        <v>1.012431276077143</v>
       </c>
       <c r="N25">
-        <v>1.049513054540548</v>
+        <v>1.00464028127572</v>
       </c>
     </row>
   </sheetData>
